--- a/Base/Teams/Jaguars/Players Data.xlsx
+++ b/Base/Teams/Jaguars/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +35,9 @@
     <t>T.Lawrence</t>
   </si>
   <si>
+    <t>C.Beathard</t>
+  </si>
+  <si>
     <t>J.Robinson</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t>L.Treadwell</t>
+  </si>
+  <si>
+    <t>J.Mickens</t>
   </si>
   <si>
     <t>C.Manhertz</t>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,13 +487,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -501,16 +507,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -521,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -564,13 +570,13 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -581,16 +587,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -601,15 +607,35 @@
         <v>11</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
@@ -620,7 +646,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -631,22 +657,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -654,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -680,13 +706,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -706,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -732,13 +758,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -758,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -784,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -810,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -836,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -862,19 +888,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -888,19 +914,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -914,19 +940,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -940,25 +966,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -966,22 +992,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -992,24 +1018,50 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
         <v>45</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>33</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Jaguars/Players Data.xlsx
+++ b/Base/Teams/Jaguars/Players Data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -553,7 +553,7 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>11</v>
@@ -709,10 +709,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -761,16 +761,16 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -787,10 +787,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -865,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -891,16 +891,16 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>3</v>

--- a/Base/Teams/Jaguars/Players Data.xlsx
+++ b/Base/Teams/Jaguars/Players Data.xlsx
@@ -487,16 +487,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
         <v>10</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -573,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -761,22 +761,22 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -787,10 +787,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -891,16 +891,16 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -943,10 +943,10 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -969,16 +969,16 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>0</v>

--- a/Base/Teams/Jaguars/Players Data.xlsx
+++ b/Base/Teams/Jaguars/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
     <t>D.Ogunbowale</t>
   </si>
   <si>
+    <t>N.Cottrell</t>
+  </si>
+  <si>
     <t>L.Shenault</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>J.Agnew</t>
   </si>
   <si>
+    <t>T.Austin</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -75,9 +81,6 @@
   </si>
   <si>
     <t>M.Jones</t>
-  </si>
-  <si>
-    <t>T.Austin</t>
   </si>
   <si>
     <t>L.Treadwell</t>
@@ -456,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,16 +490,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -527,16 +530,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>60</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -567,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -587,16 +590,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -607,16 +610,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -627,16 +630,56 @@
         <v>12</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -657,22 +700,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -735,10 +778,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -747,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -758,25 +801,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -784,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>76</v>
@@ -810,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -836,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -862,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -888,19 +931,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -914,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -940,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -966,19 +1009,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -992,13 +1035,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1018,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -1044,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>45</v>

--- a/Base/Teams/Jaguars/Players Data.xlsx
+++ b/Base/Teams/Jaguars/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jaguars/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_D0FCF31C80139773980A8915E2EA4577E13277DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{099545C4-DD59-4BF8-B047-AEAE21C71160}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +42,6 @@
   </si>
   <si>
     <t>C.Beathard</t>
-  </si>
-  <si>
-    <t>J.Robinson</t>
   </si>
   <si>
     <t>C.Hyde</t>
@@ -107,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +174,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -217,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,14 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -502,7 +551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -522,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -542,7 +591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -562,12 +611,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -582,12 +631,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -602,12 +651,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -622,12 +671,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -642,43 +691,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -688,37 +717,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -744,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -770,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,12 +827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>75</v>
@@ -822,12 +853,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>76</v>
@@ -848,12 +879,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -874,12 +905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -900,12 +931,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>28</v>
@@ -926,12 +957,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -952,12 +983,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -978,12 +1009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1004,12 +1035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -1030,12 +1061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1056,12 +1087,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -1082,12 +1113,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>45</v>

--- a/Base/Teams/Jaguars/Players Data.xlsx
+++ b/Base/Teams/Jaguars/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jaguars/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_D0FCF31C80139773980A8915E2EA4577E13277DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{099545C4-DD59-4BF8-B047-AEAE21C71160}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +45,9 @@
   </si>
   <si>
     <t>N.Cottrell</t>
+  </si>
+  <si>
+    <t>R.Armstead</t>
   </si>
   <si>
     <t>L.Shenault</t>
@@ -110,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +171,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,27 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,24 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,16 +458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -542,16 +493,16 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -571,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -591,7 +542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -599,50 +550,50 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>9</v>
       </c>
       <c r="F5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -651,12 +602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -671,12 +622,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -691,23 +642,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -717,39 +688,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -775,7 +744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -783,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -801,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -827,59 +796,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -887,25 +856,25 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -913,25 +882,25 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -939,16 +908,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -957,33 +926,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -991,25 +960,25 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1017,16 +986,16 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1035,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1043,16 +1012,16 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1061,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,25 +1038,25 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1095,25 +1064,25 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1121,21 +1090,47 @@
         <v>27</v>
       </c>
       <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
         <v>45</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>33</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Jaguars/Players Data.xlsx
+++ b/Base/Teams/Jaguars/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>R.Armstead</t>
+  </si>
+  <si>
+    <t>M.Sargent</t>
   </si>
   <si>
     <t>L.Shenault</t>
@@ -459,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -550,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -590,16 +593,16 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -610,16 +613,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -630,16 +633,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -650,16 +653,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -670,15 +673,35 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +712,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,22 +723,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -752,10 +775,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -764,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -804,10 +827,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -827,25 +850,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -853,25 +876,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -882,22 +905,22 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -908,22 +931,22 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -937,13 +960,13 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -957,25 +980,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
         <v>22</v>
       </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -986,22 +1009,22 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1012,16 +1035,16 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1038,16 +1061,16 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1064,22 +1087,22 @@
         <v>26</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1090,22 +1113,22 @@
         <v>27</v>
       </c>
       <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
         <v>9</v>
       </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1116,21 +1139,47 @@
         <v>28</v>
       </c>
       <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
         <v>45</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>33</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>1</v>
       </c>
     </row>
